--- a/打包/RND Regression Rusults_20250202.xlsx
+++ b/打包/RND Regression Rusults_20250202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83D8D42-60CA-4CC1-AECD-ADFF6CA5EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749E0D6-8C1C-4298-B280-6C37247F21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBF08D5D-1F4D-46C7-8EA0-40B904A3BBF8}"/>
   </bookViews>
@@ -1063,9 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A871C48-1125-403F-8E0E-C6618BA261E0}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
@@ -3200,9 +3198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD33AF60-BC21-45A2-BCA6-53AF3BD5B4AA}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73:O81"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
